--- a/AMASS3.1/Example_dataset_2/dictionary_for_microbiology_data.xlsx
+++ b/AMASS3.1/Example_dataset_2/dictionary_for_microbiology_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMASS3.0.31.2-Lite-main\AMASS3.0-Lite-main\AMASS3.0\Example_dataset_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMASS3.0.29.1-Lite-main\AMASS3.0-Lite-main\AMASS3.0\Example_dataset_4_cluster_signals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E81138-AD22-473C-9E03-4702B3E714B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE07F279-EE5E-4DEB-94E0-B61B4347C393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32190" yWindow="3360" windowWidth="9495" windowHeight="4920" xr2:uid="{AAB79921-DF00-466D-B2DA-3FDBFBB1FD14}"/>
+    <workbookView xWindow="33375" yWindow="1590" windowWidth="19170" windowHeight="10065" xr2:uid="{AAB79921-DF00-466D-B2DA-3FDBFBB1FD14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10473,75 +10473,75 @@
     </r>
   </si>
   <si>
+    <t>enterococcus_spp_or_faecalis_and_faecium</t>
+  </si>
+  <si>
+    <r>
+      <t>organism_enterococcus_spp or enterococcus_spp_or_faecalis_and_faecium. Default is organism_enterococcus_spp which the result will be display both</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> E. faecalis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>E. feacium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Enterococcus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>spp.</t>
+    </r>
+  </si>
+  <si>
     <t>Cefoperazone_and_sulbactam</t>
   </si>
   <si>
     <t>Ofloxacin</t>
-  </si>
-  <si>
-    <t>enterococcus_spp_or_faecalis_and_faecium</t>
-  </si>
-  <si>
-    <r>
-      <t>organism_enterococcus_spp or enterococcus_spp_or_faecalis_and_faecium. Default is organism_enterococcus_spp which the result will be display both</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> E. faecalis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>E. feacium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> as</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Enterococcus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>spp.</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -11088,8 +11088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4118E596-8BA3-4C5D-AA5B-D47E16E86D84}">
   <dimension ref="A1:D464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A457" zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11316,7 +11316,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
@@ -11748,7 +11748,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="9" t="s">
@@ -16818,16 +16818,16 @@
     </row>
     <row r="464" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A464" s="8" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B464" s="36" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C464" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D464" s="13" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
   </sheetData>
@@ -16838,7 +16838,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B463" xr:uid="{49BC63A9-A06A-4561-ABB2-C05EA9581A26}">
       <formula1>"organism_acinetobacter_baumannii,organism_acinetobacter_spp"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B464" xr:uid="{80BAC5A8-7C85-4FED-B1A2-365B28C85487}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B464" xr:uid="{6BF084D4-335F-43D1-9D9C-AFB4CEF957F9}">
       <formula1>"organism_enterococcus_spp,enterococcus_spp_or_faecalis_and_faecium"</formula1>
     </dataValidation>
   </dataValidations>
